--- a/db.xlsx
+++ b/db.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - 独立行政法人 国立高等専門学校機構\EI\５年\５年\卒業研究\main-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814593DF-2980-4CA5-8F0C-E82D8A398FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA6B9D1-E154-4CDA-9956-EEE1AA47C81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{17CC2E3D-F432-472E-BF88-8E5E17AB0648}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{17CC2E3D-F432-472E-BF88-8E5E17AB0648}"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" r:id="rId1"/>
-    <sheet name="group" sheetId="2" r:id="rId2"/>
-    <sheet name="group_member" sheetId="6" r:id="rId3"/>
-    <sheet name="integration" sheetId="5" r:id="rId4"/>
-    <sheet name="message" sheetId="8" r:id="rId5"/>
-    <sheet name="response" sheetId="9" r:id="rId6"/>
+    <sheet name="gpt" sheetId="10" r:id="rId1"/>
+    <sheet name="user" sheetId="1" r:id="rId2"/>
+    <sheet name="group" sheetId="2" r:id="rId3"/>
+    <sheet name="group_member" sheetId="6" r:id="rId4"/>
+    <sheet name="integration" sheetId="5" r:id="rId5"/>
+    <sheet name="message" sheetId="8" r:id="rId6"/>
+    <sheet name="response" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="44">
   <si>
     <t>uuid</t>
     <phoneticPr fontId="1"/>
@@ -208,6 +209,14 @@
   </si>
   <si>
     <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enum</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -828,11 +837,317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64083843-E9C6-4674-99B0-5C6EBCAB2685}">
+  <dimension ref="B2:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="F14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72927354-2084-4EF0-9BBA-76D34FAE99AC}">
   <dimension ref="B3:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D7" sqref="B3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -899,9 +1214,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AC1D05-A5A6-44BB-B028-FB9E46A48FD0}">
   <dimension ref="B3:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="45.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61537559-D08B-4C0A-B39E-FBEE0FB80763}">
+  <dimension ref="B3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -914,93 +1308,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61537559-D08B-4C0A-B39E-FBEE0FB80763}">
-  <dimension ref="B3:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="3" max="3" width="13.59765625" customWidth="1"/>
-    <col min="4" max="4" width="45.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
@@ -1032,83 +1347,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEA7A00-8AF3-429F-AFA1-197C7CE66571}">
-  <dimension ref="B3:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="3" max="3" width="13.59765625" customWidth="1"/>
-    <col min="4" max="4" width="45.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340B3201-4667-47C0-A087-142A86E81A7D}">
   <dimension ref="B3:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1128,61 +1368,53 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>4</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1191,11 +1423,94 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340B3201-4667-47C0-A087-142A86E81A7D}">
+  <dimension ref="B3:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="45.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1FD863-FF46-40A5-9DA2-D3F1ABFFB9A0}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - 独立行政法人 国立高等専門学校機構\EI\５年\５年\卒業研究\main-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA6B9D1-E154-4CDA-9956-EEE1AA47C81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD669C6-2268-4FE4-ABB7-5A3A50808BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{17CC2E3D-F432-472E-BF88-8E5E17AB0648}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="5" xr2:uid="{17CC2E3D-F432-472E-BF88-8E5E17AB0648}"/>
   </bookViews>
   <sheets>
     <sheet name="gpt" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="43">
   <si>
     <t>uuid</t>
     <phoneticPr fontId="1"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FK(user.uuid)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FK(user.uuid), ON DELETE CASCADE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -164,10 +160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>status</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ENUM('user', 'group')</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -200,10 +192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FK(message.uuid)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>safety</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -217,6 +205,14 @@
   </si>
   <si>
     <t>enum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK(user.uuid), ON DELETE SET NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK(message.uuid), ON DELETE SET NULL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -841,7 +837,7 @@
   <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F17" sqref="F17:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -924,13 +920,13 @@
     </row>
     <row r="6" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>14</v>
@@ -951,7 +947,7 @@
     </row>
     <row r="8" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="17"/>
     </row>
@@ -963,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -977,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
@@ -991,7 +987,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>3</v>
@@ -1002,16 +998,16 @@
     </row>
     <row r="12" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
@@ -1022,39 +1018,39 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="7"/>
       <c r="F14" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>15</v>
@@ -1063,19 +1059,19 @@
     </row>
     <row r="16" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="7"/>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>15</v>
@@ -1093,32 +1089,32 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F20" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>4</v>
@@ -1126,7 +1122,7 @@
     </row>
     <row r="21" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F21" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>3</v>
@@ -1199,13 +1195,13 @@
     </row>
     <row r="7" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1309,19 +1305,19 @@
   <sheetData>
     <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="17"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -1332,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -1363,7 +1359,7 @@
   <sheetData>
     <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
@@ -1374,12 +1370,12 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>15</v>
@@ -1391,7 +1387,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>15</v>
@@ -1400,7 +1396,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
@@ -1409,7 +1405,7 @@
     </row>
     <row r="8" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>15</v>
@@ -1427,7 +1423,7 @@
   <dimension ref="B3:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1438,7 +1434,7 @@
   <sheetData>
     <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
@@ -1454,7 +1450,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>3</v>
@@ -1468,35 +1464,35 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1510,19 +1506,19 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
+      <selection activeCell="E12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
@@ -1538,32 +1534,32 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>4</v>
@@ -1571,7 +1567,7 @@
     </row>
     <row r="7" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>3</v>

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - 独立行政法人 国立高等専門学校機構\EI\５年\５年\卒業研究\main-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD669C6-2268-4FE4-ABB7-5A3A50808BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC67C38-930C-4651-9AFC-9A2939DAD29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="5" xr2:uid="{17CC2E3D-F432-472E-BF88-8E5E17AB0648}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{17CC2E3D-F432-472E-BF88-8E5E17AB0648}"/>
   </bookViews>
   <sheets>
     <sheet name="gpt" sheetId="10" r:id="rId1"/>
@@ -442,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,23 +482,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,18 +821,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64083843-E9C6-4674-99B0-5C6EBCAB2685}">
   <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -919,37 +904,37 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="1" t="s">
@@ -1020,7 +1005,7 @@
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -1038,10 +1023,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="9" t="s">
@@ -1058,7 +1043,7 @@
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1070,10 +1055,10 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="9"/>
@@ -1110,7 +1095,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -1121,10 +1106,10 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="8" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="9"/>
@@ -1194,13 +1179,13 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1266,19 +1251,19 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="9"/>
@@ -1304,10 +1289,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
@@ -1395,7 +1380,7 @@
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1404,10 +1389,10 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="9"/>
@@ -1422,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340B3201-4667-47C0-A087-142A86E81A7D}">
   <dimension ref="B3:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1474,7 +1459,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1485,10 +1470,10 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -1555,7 +1540,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1566,10 +1551,10 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="9"/>
@@ -1581,6 +1566,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d551136a-467d-42f6-8365-e4600069dcbb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010076DA1D55B9FE9141A24610F50840C0C5" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="14822b107ce93b73046b890132fb6f93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d551136a-467d-42f6-8365-e4600069dcbb" xmlns:ns4="5bb4d9c9-e043-4d25-a544-b9f6b40bc975" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08401a21b2df522bc709729f7a8cfc03" ns3:_="" ns4:_="">
     <xsd:import namespace="d551136a-467d-42f6-8365-e4600069dcbb"/>
@@ -1827,24 +1829,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC575EC6-03A9-467A-A449-1351BFAA5D32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="5bb4d9c9-e043-4d25-a544-b9f6b40bc975"/>
+    <ds:schemaRef ds:uri="d551136a-467d-42f6-8365-e4600069dcbb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d551136a-467d-42f6-8365-e4600069dcbb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39669EAF-781A-45BB-A885-BF7C5507BB13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9AA024-E8BC-4103-AB06-22408A2B1217}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1861,29 +1871,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39669EAF-781A-45BB-A885-BF7C5507BB13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC575EC6-03A9-467A-A449-1351BFAA5D32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="5bb4d9c9-e043-4d25-a544-b9f6b40bc975"/>
-    <ds:schemaRef ds:uri="d551136a-467d-42f6-8365-e4600069dcbb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - 独立行政法人 国立高等専門学校機構\EI\５年\５年\卒業研究\main-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC67C38-930C-4651-9AFC-9A2939DAD29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C602944-0A66-4BC8-B3AE-F668183AF973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{17CC2E3D-F432-472E-BF88-8E5E17AB0648}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="46">
   <si>
     <t>uuid</t>
     <phoneticPr fontId="1"/>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>FK(message.uuid), ON DELETE SET NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOL </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL, DEFAULT FALSE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -442,7 +454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,6 +496,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,7 +843,7 @@
   <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -903,15 +924,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>32</v>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
@@ -922,6 +943,15 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
@@ -930,35 +960,24 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="13" t="s">
+    <row r="9" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="C9" s="13"/>
       <c r="F9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>24</v>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
@@ -970,7 +989,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>25</v>
       </c>
@@ -981,10 +1009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F12" s="2" t="s">
         <v>26</v>
       </c>
@@ -995,15 +1020,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
+    <row r="13" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" t="s">
+        <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>28</v>
@@ -1016,13 +1035,15 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="7"/>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1035,7 +1056,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>15</v>
@@ -1044,7 +1065,7 @@
     </row>
     <row r="16" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
@@ -1054,14 +1075,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="8" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1072,7 +1093,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="9"/>
       <c r="F18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1116,7 +1144,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1566,23 +1594,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d551136a-467d-42f6-8365-e4600069dcbb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010076DA1D55B9FE9141A24610F50840C0C5" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="14822b107ce93b73046b890132fb6f93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d551136a-467d-42f6-8365-e4600069dcbb" xmlns:ns4="5bb4d9c9-e043-4d25-a544-b9f6b40bc975" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08401a21b2df522bc709729f7a8cfc03" ns3:_="" ns4:_="">
     <xsd:import namespace="d551136a-467d-42f6-8365-e4600069dcbb"/>
@@ -1829,32 +1840,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC575EC6-03A9-467A-A449-1351BFAA5D32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="5bb4d9c9-e043-4d25-a544-b9f6b40bc975"/>
-    <ds:schemaRef ds:uri="d551136a-467d-42f6-8365-e4600069dcbb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39669EAF-781A-45BB-A885-BF7C5507BB13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d551136a-467d-42f6-8365-e4600069dcbb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9AA024-E8BC-4103-AB06-22408A2B1217}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1871,4 +1874,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39669EAF-781A-45BB-A885-BF7C5507BB13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC575EC6-03A9-467A-A449-1351BFAA5D32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="5bb4d9c9-e043-4d25-a544-b9f6b40bc975"/>
+    <ds:schemaRef ds:uri="d551136a-467d-42f6-8365-e4600069dcbb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - 独立行政法人 国立高等専門学校機構\EI\５年\５年\卒業研究\main-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C602944-0A66-4BC8-B3AE-F668183AF973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D91FBF-230D-4EFB-8FAF-12622AA1B4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{17CC2E3D-F432-472E-BF88-8E5E17AB0648}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
   <si>
     <t>uuid</t>
     <phoneticPr fontId="1"/>
@@ -225,6 +225,10 @@
   </si>
   <si>
     <t>NOT NULL, DEFAULT FALSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UNIQUE KEY unique_user_message (user_id, message_id)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -257,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -448,13 +452,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,14 +510,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64083843-E9C6-4674-99B0-5C6EBCAB2685}">
-  <dimension ref="B2:H21"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -925,13 +932,13 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1142,12 +1149,21 @@
       </c>
       <c r="H21" s="9"/>
     </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1594,6 +1610,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d551136a-467d-42f6-8365-e4600069dcbb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010076DA1D55B9FE9141A24610F50840C0C5" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="14822b107ce93b73046b890132fb6f93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d551136a-467d-42f6-8365-e4600069dcbb" xmlns:ns4="5bb4d9c9-e043-4d25-a544-b9f6b40bc975" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08401a21b2df522bc709729f7a8cfc03" ns3:_="" ns4:_="">
     <xsd:import namespace="d551136a-467d-42f6-8365-e4600069dcbb"/>
@@ -1840,24 +1873,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC575EC6-03A9-467A-A449-1351BFAA5D32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="5bb4d9c9-e043-4d25-a544-b9f6b40bc975"/>
+    <ds:schemaRef ds:uri="d551136a-467d-42f6-8365-e4600069dcbb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d551136a-467d-42f6-8365-e4600069dcbb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39669EAF-781A-45BB-A885-BF7C5507BB13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9AA024-E8BC-4103-AB06-22408A2B1217}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1874,29 +1915,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39669EAF-781A-45BB-A885-BF7C5507BB13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC575EC6-03A9-467A-A449-1351BFAA5D32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="5bb4d9c9-e043-4d25-a544-b9f6b40bc975"/>
-    <ds:schemaRef ds:uri="d551136a-467d-42f6-8365-e4600069dcbb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - 独立行政法人 国立高等専門学校機構\EI\５年\５年\卒業研究\main-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D91FBF-230D-4EFB-8FAF-12622AA1B4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA6CBAB-3C29-4CC7-995C-BC357E2A5423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{17CC2E3D-F432-472E-BF88-8E5E17AB0648}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="54">
   <si>
     <t>uuid</t>
     <phoneticPr fontId="1"/>
@@ -229,6 +229,34 @@
   </si>
   <si>
     <t>UNIQUE KEY unique_user_message (user_id, message_id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK(group.id), ON DELETE CASCADE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK, AUTO INCREMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group_provider</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  UNIQUE KEY unique_user_group (user_id, group_id)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -467,7 +495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,10 +535,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -847,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64083843-E9C6-4674-99B0-5C6EBCAB2685}">
-  <dimension ref="B2:H22"/>
+  <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -867,11 +898,8 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,15 +909,11 @@
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
@@ -901,14 +925,14 @@
       <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>6</v>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
@@ -922,13 +946,13 @@
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
@@ -942,12 +966,14 @@
         <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3" t="s">
@@ -959,22 +985,33 @@
       <c r="D7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
+      <c r="C9" s="15"/>
+      <c r="F9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
@@ -986,15 +1023,6 @@
       <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="11" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="3" t="s">
@@ -1006,160 +1034,196 @@
       <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>4</v>
+      <c r="F11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>41</v>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="18" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="2" t="s">
+      <c r="D19" s="7"/>
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B17" s="2" t="s">
+      <c r="D20" s="7"/>
+      <c r="F20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="F17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="3" t="s">
+      <c r="D21" s="7"/>
+      <c r="F21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="F18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="F19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="F20" s="2" t="s">
+      <c r="D22" s="9"/>
+      <c r="F22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F21" s="3" t="s">
+    <row r="23" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="F22" s="14" t="s">
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1333,10 +1397,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - 独立行政法人 国立高等専門学校機構\EI\５年\５年\卒業研究\main-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA6CBAB-3C29-4CC7-995C-BC357E2A5423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489DE6BC-C7FA-4D58-AFF7-762B26C2FBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{17CC2E3D-F432-472E-BF88-8E5E17AB0648}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="82">
   <si>
     <t>uuid</t>
     <phoneticPr fontId="1"/>
@@ -257,6 +257,202 @@
   </si>
   <si>
     <t xml:space="preserve">  UNIQUE KEY unique_user_group (user_id, group_id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ固有のid</t>
+    <rPh sb="3" eb="5">
+      <t>コユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード (そのうちハッシュ化予定)</t>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者かどうか</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効なアカウントか</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user識別用のid</t>
+    <rPh sb="4" eb="6">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>discordにおける識別id</t>
+    <rPh sb="11" eb="13">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINEにおける識別id</t>
+    <rPh sb="8" eb="10">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- 未定 -</t>
+    <rPh sb="2" eb="4">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- 未定 -</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user識別用id</t>
+    <rPh sb="4" eb="6">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group識別用id</t>
+    <rPh sb="5" eb="8">
+      <t>シキベツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>providerリストのid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのサービス用のデータか</t>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サービスでのグループ識別用データ</t>
+    <rPh sb="10" eb="13">
+      <t>シキベツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サービスでのメッセージ送信先</t>
+    <rPh sb="11" eb="14">
+      <t>ソウシンサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ本文</t>
+    <rPh sb="5" eb="7">
+      <t>ホンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信者</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信対象種類</t>
+    <rPh sb="0" eb="4">
+      <t>ソウシンタイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信対象</t>
+    <rPh sb="0" eb="4">
+      <t>ソウシンタイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応答id</t>
+    <rPh sb="0" eb="2">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応答者</t>
+    <rPh sb="0" eb="3">
+      <t>オウトウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応答対象メッセージ</t>
+    <rPh sb="0" eb="4">
+      <t>オウトウタイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全か?</t>
+    <rPh sb="0" eb="2">
+      <t>アンゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自由記述欄</t>
+    <rPh sb="0" eb="5">
+      <t>ジユウキジュツラン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -289,7 +485,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -489,13 +685,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,8 +787,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64083843-E9C6-4674-99B0-5C6EBCAB2685}">
-  <dimension ref="B2:H24"/>
+  <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -889,337 +1165,446 @@
     <col min="2" max="2" width="10.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="E5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="15" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="F9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="F12" s="1" t="s">
+      <c r="E11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I11" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J11" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="G13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F16" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="I15" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J15" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="F19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="F20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="F21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D21" s="16"/>
+      <c r="E21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="F22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F23" s="3" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="F24" s="13" t="s">
+      <c r="I22" s="9"/>
+      <c r="J22" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="25" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G26" s="1"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G27" s="2"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G29" s="2"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G30" s="3"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1397,10 +1782,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">

--- a/db.xlsx
+++ b/db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - 独立行政法人 国立高等専門学校機構\EI\５年\５年\卒業研究\main-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489DE6BC-C7FA-4D58-AFF7-762B26C2FBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E46D8E-114A-4222-ABA4-26FF033310AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{17CC2E3D-F432-472E-BF88-8E5E17AB0648}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
   <si>
     <t>uuid</t>
     <phoneticPr fontId="1"/>
@@ -453,6 +453,14 @@
     <rPh sb="0" eb="5">
       <t>ジユウキジュツラン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message_target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK(message.id)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -741,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,18 +815,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64083843-E9C6-4674-99B0-5C6EBCAB2685}">
-  <dimension ref="B2:J30"/>
+  <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1166,7 +1162,7 @@
     <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.3984375" customWidth="1"/>
-    <col min="7" max="7" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" customWidth="1"/>
     <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.796875" customWidth="1"/>
@@ -1353,7 +1349,7 @@
       <c r="I11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1372,7 +1368,7 @@
       <c r="I12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1389,7 +1385,7 @@
       <c r="I13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1415,7 +1411,7 @@
       <c r="I14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1441,7 +1437,7 @@
       <c r="I15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1450,7 +1446,7 @@
         <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
@@ -1469,15 +1465,13 @@
       <c r="G18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>77</v>
-      </c>
+      <c r="I18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
@@ -1491,19 +1485,19 @@
         <v>60</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1514,17 +1508,17 @@
       <c r="E20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="G20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>79</v>
+      <c r="I20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.45">
@@ -1538,18 +1532,6 @@
       <c r="E21" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="22" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="3" t="s">
@@ -1562,49 +1544,84 @@
       <c r="E22" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="22" t="s">
+      <c r="I27" s="9"/>
+      <c r="J27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G23" s="13" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G28" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="25" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G26" s="1"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G27" s="2"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G29" s="2"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G30" s="3"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2067,15 +2084,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010076DA1D55B9FE9141A24610F50840C0C5" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="14822b107ce93b73046b890132fb6f93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d551136a-467d-42f6-8365-e4600069dcbb" xmlns:ns4="5bb4d9c9-e043-4d25-a544-b9f6b40bc975" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08401a21b2df522bc709729f7a8cfc03" ns3:_="" ns4:_="">
     <xsd:import namespace="d551136a-467d-42f6-8365-e4600069dcbb"/>
@@ -2322,6 +2330,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC575EC6-03A9-467A-A449-1351BFAA5D32}">
   <ds:schemaRefs>
@@ -2340,14 +2357,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39669EAF-781A-45BB-A885-BF7C5507BB13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9AA024-E8BC-4103-AB06-22408A2B1217}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2364,4 +2373,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39669EAF-781A-45BB-A885-BF7C5507BB13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - 独立行政法人 国立高等専門学校機構\EI\５年\５年\卒業研究\main-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E46D8E-114A-4222-ABA4-26FF033310AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F667325E-6303-4918-B9D7-271886EAE2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{17CC2E3D-F432-472E-BF88-8E5E17AB0648}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="84">
   <si>
     <t>uuid</t>
     <phoneticPr fontId="1"/>
@@ -1150,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64083843-E9C6-4674-99B0-5C6EBCAB2685}">
-  <dimension ref="B2:J28"/>
+  <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G15" sqref="G15:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1402,18 +1402,6 @@
       <c r="E14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="15" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="3" t="s">
@@ -1428,28 +1416,40 @@
       <c r="E15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="I16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="G17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1462,16 +1462,18 @@
       <c r="E18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="1"/>
+      <c r="I18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
@@ -1484,18 +1486,6 @@
       <c r="E19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="20" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="2" t="s">
@@ -1508,17 +1498,8 @@
       <c r="E20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>76</v>
+      <c r="G20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.45">
@@ -1532,6 +1513,18 @@
       <c r="E21" s="19" t="s">
         <v>62</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="22" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="3" t="s">
@@ -1544,84 +1537,65 @@
       <c r="E22" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G22" t="s">
-        <v>34</v>
+      <c r="G22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="4" t="s">
+      <c r="G23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>8</v>
+      <c r="I23" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="G24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="9"/>
       <c r="J25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G28" s="13" t="s">
+      <c r="G26" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - 独立行政法人 国立高等専門学校機構\EI\５年\５年\卒業研究\main-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F667325E-6303-4918-B9D7-271886EAE2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AB3AA8-7B46-473E-AD2D-6D2EB2A7F254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{17CC2E3D-F432-472E-BF88-8E5E17AB0648}"/>
   </bookViews>
@@ -1152,15 +1152,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64083843-E9C6-4674-99B0-5C6EBCAB2685}">
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:J19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.19921875" customWidth="1"/>
     <col min="5" max="5" width="34.3984375" customWidth="1"/>
     <col min="7" max="7" width="15.19921875" customWidth="1"/>
     <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
@@ -1238,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>56</v>
@@ -2058,6 +2058,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010076DA1D55B9FE9141A24610F50840C0C5" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="14822b107ce93b73046b890132fb6f93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d551136a-467d-42f6-8365-e4600069dcbb" xmlns:ns4="5bb4d9c9-e043-4d25-a544-b9f6b40bc975" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08401a21b2df522bc709729f7a8cfc03" ns3:_="" ns4:_="">
     <xsd:import namespace="d551136a-467d-42f6-8365-e4600069dcbb"/>
@@ -2304,15 +2313,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC575EC6-03A9-467A-A449-1351BFAA5D32}">
   <ds:schemaRefs>
@@ -2331,6 +2331,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39669EAF-781A-45BB-A885-BF7C5507BB13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9AA024-E8BC-4103-AB06-22408A2B1217}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2347,12 +2355,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39669EAF-781A-45BB-A885-BF7C5507BB13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>